--- a/olah.xlsx
+++ b/olah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E08F7-68D3-4BD0-B3DB-B643E144BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77B288-B4A0-4201-9AE5-95411CDCFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="2670" windowWidth="14385" windowHeight="12285" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
+    <workbookView xWindow="14250" yWindow="1725" windowWidth="14385" windowHeight="12285" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
         <v>0.94820000000000004</v>
       </c>
       <c r="J26" s="2">
-        <v>32.552</v>
+        <v>3.2549999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
